--- a/calculadora_simulacoes/ambar/arquivos/boletagem_ambar.xlsx
+++ b/calculadora_simulacoes/ambar/arquivos/boletagem_ambar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deivi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stellagd-my.sharepoint.com/personal/fileserver_stellagd_com_br/Documents/Billing/Ambar/boletagem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E2D8421-3A62-4FEE-AF70-3C8A8345F18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{2E2D8421-3A62-4FEE-AF70-3C8A8345F18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69693024-7CB9-463C-A9C8-B4EA99DAA4D0}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{77D341DB-42A6-4172-AA8A-A2F3AEDBA3F6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{77D341DB-42A6-4172-AA8A-A2F3AEDBA3F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,25 +36,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Saldo</t>
+    <t>Participação</t>
   </si>
   <si>
-    <t>Energia Consumida</t>
+    <t>Numero da Instalacao</t>
   </si>
   <si>
-    <t>Energia Injetada</t>
+    <t>kWh Energia Fornecida</t>
   </si>
   <si>
-    <t>Numero da Instalação</t>
+    <t>kWh Energia Cobrada</t>
+  </si>
+  <si>
+    <t>kWh Saldo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +68,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="MS Shell Dlg 2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFC0C0C0"/>
       <name val="MS Shell Dlg 2"/>
     </font>
   </fonts>
@@ -109,12 +118,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -431,197 +443,627 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B9CD7F-953A-4F77-A682-31CD7CE1BF8E}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="26.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>12188760</v>
       </c>
       <c r="B2" s="1">
-        <f>C2+D2</f>
-        <v>7728.06</v>
+        <v>8805</v>
       </c>
       <c r="C2" s="1">
         <v>7728.06</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.78</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
+        <v>4002073977</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7028</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6919.69</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4.28</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>12434418</v>
       </c>
-      <c r="B3" s="1">
-        <f t="shared" ref="B3:B12" si="0">C3+D3</f>
-        <v>4458.96216</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B4" s="1">
+        <v>4472</v>
+      </c>
+      <c r="C4" s="1">
         <v>4372</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D4" s="1">
+        <v>2.76</v>
+      </c>
+      <c r="E4" s="2">
         <v>86.962159999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>15892204</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4354</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3686.19</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>4002257710</v>
       </c>
-      <c r="B4" s="1">
-        <f t="shared" si="0"/>
+      <c r="B6" s="1">
+        <v>4848</v>
+      </c>
+      <c r="C6" s="1">
         <v>3670.02</v>
       </c>
-      <c r="C4" s="1">
-        <v>3670.02</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="D6" s="1">
+        <v>2.27</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>4003279372</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2038</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1938</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.27</v>
+      </c>
+      <c r="E7" s="2">
+        <v>113.76882000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>7857292</v>
       </c>
-      <c r="B5" s="1">
-        <f t="shared" si="0"/>
+      <c r="B8" s="1">
+        <v>2185</v>
+      </c>
+      <c r="C8" s="1">
         <v>1923.93</v>
       </c>
-      <c r="C5" s="1">
-        <v>1923.93</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="D8" s="1">
+        <v>1.19</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>9194541</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2546</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1843.09</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>4001926045</v>
       </c>
-      <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>2453.4575</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B10" s="1">
+        <v>1893</v>
+      </c>
+      <c r="C10" s="1">
         <v>1843</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D10" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="E10" s="2">
         <v>610.45749999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>14189763</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2287</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1810.76</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>15868435</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1408</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1358</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="E12" s="2">
+        <v>128.32071999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>10928286</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3517</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1261.06</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>4000928365</v>
       </c>
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
+      <c r="B14" s="1">
+        <v>1691</v>
+      </c>
+      <c r="C14" s="1">
         <v>1244.9000000000001</v>
       </c>
-      <c r="C7" s="1">
-        <v>1244.9000000000001</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="D14" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>38819805</v>
       </c>
-      <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>1531.7876999999999</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B15" s="1">
+        <v>1280</v>
+      </c>
+      <c r="C15" s="1">
         <v>1230</v>
       </c>
-      <c r="D8" s="2">
-        <v>301.78769999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="D15" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="E15" s="2">
+        <v>304.78769999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>9683399</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1303</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1203</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="E16" s="2">
+        <v>396.41034000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>13122029</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2731</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1131.72</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>8769540</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1210</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1110</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="E18" s="2">
+        <v>117.83016000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>8135541</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1035</v>
+      </c>
+      <c r="C19" s="1">
+        <v>935</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="E19" s="2">
+        <v>82.806579999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>4001782114</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1004</v>
+      </c>
+      <c r="C20" s="1">
+        <v>873.04</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>8782180</v>
+      </c>
+      <c r="B21" s="1">
+        <v>464</v>
+      </c>
+      <c r="C21" s="1">
+        <v>414</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E21" s="2">
+        <v>54.514139999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>14581205</v>
+      </c>
+      <c r="B22" s="1">
+        <v>419</v>
+      </c>
+      <c r="C22" s="1">
+        <v>369</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="E22" s="2">
+        <v>18.73584</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>4002765105</v>
+      </c>
+      <c r="B23" s="1">
+        <v>467</v>
+      </c>
+      <c r="C23" s="1">
+        <v>323.35000000000002</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>4003119044</v>
+      </c>
+      <c r="B24" s="1">
+        <v>440</v>
+      </c>
+      <c r="C24" s="1">
+        <v>323.35000000000002</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>4002783732</v>
+      </c>
+      <c r="B25" s="1">
+        <v>333</v>
+      </c>
+      <c r="C25" s="1">
+        <v>283</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>40.113199999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>22763929</v>
+      </c>
+      <c r="B26" s="1">
+        <v>331</v>
+      </c>
+      <c r="C26" s="1">
+        <v>281</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>42.113199999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>22254277</v>
+      </c>
+      <c r="B27" s="1">
+        <v>301</v>
+      </c>
+      <c r="C27" s="1">
+        <v>251</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>72.113200000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>4001904950</v>
       </c>
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>323.11320000000001</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B28" s="1">
+        <v>297</v>
+      </c>
+      <c r="C28" s="1">
         <v>247</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D28" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E28" s="2">
         <v>76.113200000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>4003172028</v>
+      </c>
+      <c r="B29" s="1">
+        <v>296</v>
+      </c>
+      <c r="C29" s="1">
+        <v>226.34</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>18093116</v>
+      </c>
+      <c r="B30" s="1">
+        <v>262</v>
+      </c>
+      <c r="C30" s="1">
+        <v>212</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E30" s="2">
+        <v>111.11320000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>399140</v>
+      </c>
+      <c r="B31" s="1">
+        <v>159</v>
+      </c>
+      <c r="C31" s="1">
+        <v>159</v>
+      </c>
+      <c r="D31" s="1">
+        <v>100</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>10174311</v>
       </c>
-      <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>517</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B32" s="1">
         <v>156</v>
       </c>
-      <c r="D10" s="1">
+      <c r="C32" s="1">
+        <v>156</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="1">
         <v>361</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>7978383</v>
-      </c>
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>215.71199999999999</v>
-      </c>
-      <c r="C11" s="1">
-        <v>139</v>
-      </c>
-      <c r="D11" s="2">
-        <v>76.712000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>36763403</v>
+      </c>
+      <c r="B33" s="1">
+        <v>199</v>
+      </c>
+      <c r="C33" s="1">
+        <v>149</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E33" s="2">
+        <v>93.334900000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>4002782389</v>
+      </c>
+      <c r="B34" s="1">
+        <v>172</v>
+      </c>
+      <c r="C34" s="1">
+        <v>122</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2139.7923999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>16149815</v>
       </c>
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>323.11320000000001</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B35" s="1">
+        <v>159</v>
+      </c>
+      <c r="C35" s="1">
         <v>109</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D35" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E35" s="2">
         <v>214.11320000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>9662308</v>
+      </c>
+      <c r="B36" s="1">
+        <v>255</v>
+      </c>
+      <c r="C36" s="1">
+        <v>77</v>
+      </c>
+      <c r="D36" s="1">
+        <v>100</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
